--- a/02_code/sample_list.xlsx
+++ b/02_code/sample_list.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisyd-my.sharepoint.com/personal/rosemonde_power_sydney_edu_au/Documents/Documents/HW_WGS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpow2134\Documents\GitHub\heartworm_genome\02_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74F6966F-6A44-45D1-97FA-47362E28F599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56BA040-61E0-4BCE-B19D-AC86410A4D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9936" yWindow="24" windowWidth="13068" windowHeight="12192" xr2:uid="{3C295E1F-AA2F-4BFA-AAB9-CF15F910187A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3C295E1F-AA2F-4BFA-AAB9-CF15F910187A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
   <si>
     <t>JS6277_merged_1.fq.gz</t>
   </si>
@@ -279,6 +280,36 @@
   </si>
   <si>
     <t>JS6370</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Lockhart River Cooktown</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Cairns</t>
+  </si>
+  <si>
+    <t>Townsville</t>
+  </si>
+  <si>
+    <t>SRR13154013</t>
+  </si>
+  <si>
+    <t>SRR13154014</t>
+  </si>
+  <si>
+    <t>SRR13154015</t>
+  </si>
+  <si>
+    <t>SRR13154016</t>
+  </si>
+  <si>
+    <t>SRR13154017</t>
   </si>
 </sst>
 </file>
@@ -642,17 +673,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEED89A-2400-488A-BC6C-63505C8F5AB4}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -674,7 +705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -696,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -707,7 +738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -718,7 +749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -729,7 +760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -740,7 +771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -751,7 +782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -762,7 +793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -773,7 +804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -784,7 +815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -795,7 +826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -806,7 +837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -817,7 +848,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -828,7 +859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -839,7 +870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -850,7 +881,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -861,7 +892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -872,7 +903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -883,7 +914,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -894,7 +925,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -905,7 +936,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -916,7 +947,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -927,7 +958,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -938,7 +969,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -953,4 +984,267 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921CA961-956F-405E-A09A-7A76E8F343D2}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>